--- a/data/trans_orig/P5702-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>299740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273056</v>
+        <v>273736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>326652</v>
+        <v>326095</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4318951933282743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3934452265411734</v>
+        <v>0.3944257020048754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4706717536632415</v>
+        <v>0.4698688278022902</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -765,19 +765,19 @@
         <v>250661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225177</v>
+        <v>227252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274896</v>
+        <v>276687</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3641474864707188</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3271258810864385</v>
+        <v>0.3301398315546058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3993540495878077</v>
+        <v>0.4019567330517304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>545</v>
@@ -786,19 +786,19 @@
         <v>550402</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>515755</v>
+        <v>515121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>583937</v>
+        <v>589582</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3981600611658404</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3730963730009069</v>
+        <v>0.3726377752112868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4224191088230635</v>
+        <v>0.4265032485153004</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>247623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224002</v>
+        <v>222851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272957</v>
+        <v>271790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3567996297879678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.322764072867921</v>
+        <v>0.3211057157682248</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3933029981499236</v>
+        <v>0.3916213723062426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -836,19 +836,19 @@
         <v>200964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179007</v>
+        <v>179053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225150</v>
+        <v>225567</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2919499338922252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2600515151044772</v>
+        <v>0.2601186575294192</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3270856823545008</v>
+        <v>0.3276921225594557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>456</v>
@@ -857,19 +857,19 @@
         <v>448587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414819</v>
+        <v>416460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>484352</v>
+        <v>481491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3245075690937756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3000799351637166</v>
+        <v>0.3012670772259061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3503795940911258</v>
+        <v>0.3483097741563235</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>121755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101827</v>
+        <v>104073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142589</v>
+        <v>143275</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1754371347953012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1467220780385265</v>
+        <v>0.1499590478168106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2054559897477498</v>
+        <v>0.2064448990986726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -907,19 +907,19 @@
         <v>138183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116633</v>
+        <v>118038</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158736</v>
+        <v>161315</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2007456188985584</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1694387507259765</v>
+        <v>0.1714799070907676</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2306028819510788</v>
+        <v>0.2343492025850135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>260</v>
@@ -928,19 +928,19 @@
         <v>259939</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>231816</v>
+        <v>231770</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>290767</v>
+        <v>287122</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1880395547982303</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1676956033113897</v>
+        <v>0.167661928003922</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2103406387004365</v>
+        <v>0.2077038326579725</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>22952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14240</v>
+        <v>14706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34485</v>
+        <v>35234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03307213299646306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0205181496504014</v>
+        <v>0.02118958924075412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04968947159449655</v>
+        <v>0.05076866093520736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -978,19 +978,19 @@
         <v>89112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74423</v>
+        <v>71510</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108460</v>
+        <v>106845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1294569304607944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1081171193829803</v>
+        <v>0.1038857119227299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1575642723570722</v>
+        <v>0.1552192430770442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -999,19 +999,19 @@
         <v>112064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93126</v>
+        <v>94032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133765</v>
+        <v>136737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08106717270674091</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06736707242840209</v>
+        <v>0.06802297993021168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09676534332770786</v>
+        <v>0.09891552750121471</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5973</v>
+        <v>6734</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002795909091993739</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008606483533152421</v>
+        <v>0.009702904338111081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1049,19 +1049,19 @@
         <v>9430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4511</v>
+        <v>4550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17973</v>
+        <v>18164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01370003027770319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006552644808701414</v>
+        <v>0.00661024199456147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02610958306171402</v>
+        <v>0.02638727024670371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1070,19 +1070,19 @@
         <v>11371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6221</v>
+        <v>6361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20869</v>
+        <v>20976</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008225642235412734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004500021956866941</v>
+        <v>0.004601441951295353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01509685452592389</v>
+        <v>0.01517435392420794</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>487896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>456209</v>
+        <v>456952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>520044</v>
+        <v>521797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5072737680306771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4743283494901153</v>
+        <v>0.4751005701573794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5406990225296442</v>
+        <v>0.5425212296353079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>400</v>
@@ -1195,19 +1195,19 @@
         <v>419289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>385859</v>
+        <v>388586</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>452815</v>
+        <v>452229</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4329740937900195</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3984526105443039</v>
+        <v>0.4012689136354152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4675942522337298</v>
+        <v>0.4669890951872451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>854</v>
@@ -1216,19 +1216,19 @@
         <v>907185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>865611</v>
+        <v>865947</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>953315</v>
+        <v>952686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4699970364327614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4484584502046209</v>
+        <v>0.4486321763158603</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4938964187831495</v>
+        <v>0.4935701703500492</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>255330</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>225472</v>
+        <v>227637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282578</v>
+        <v>283256</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2654714311466758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2344273826499394</v>
+        <v>0.2366777546192929</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2938010717594762</v>
+        <v>0.2945059122602699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -1266,19 +1266,19 @@
         <v>251111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222959</v>
+        <v>224014</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277668</v>
+        <v>279405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2593072823160802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2302360684500921</v>
+        <v>0.2313252519574969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2867308858812633</v>
+        <v>0.2885248310431778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>475</v>
@@ -1287,19 +1287,19 @@
         <v>506442</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>468593</v>
+        <v>468032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549009</v>
+        <v>547425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2623788291422113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2427698660010623</v>
+        <v>0.2424794721035877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2844323878438467</v>
+        <v>0.2836113372814453</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>146757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>126270</v>
+        <v>126648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172663</v>
+        <v>169588</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1525862235962896</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1312849542764061</v>
+        <v>0.1316777220434224</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1795209485657722</v>
+        <v>0.1763236305376449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -1337,19 +1337,19 @@
         <v>159922</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>139292</v>
+        <v>137966</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>186415</v>
+        <v>182020</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.165141980861958</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1438385033274711</v>
+        <v>0.1424686702806878</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1924998181264387</v>
+        <v>0.1879612683495543</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -1358,19 +1358,19 @@
         <v>306680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>275441</v>
+        <v>278541</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341016</v>
+        <v>343785</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1588855458797888</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1427012674415178</v>
+        <v>0.1443074115908164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1766745069812612</v>
+        <v>0.1781092818598339</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>49118</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36784</v>
+        <v>36505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64788</v>
+        <v>64497</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05106844558130131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03824450727224641</v>
+        <v>0.03795437736843645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06736115091969977</v>
+        <v>0.06705821614205658</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1408,19 +1408,19 @@
         <v>106889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88307</v>
+        <v>86993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130596</v>
+        <v>127495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1103775700196863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09118898098244312</v>
+        <v>0.08983247785660149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1348583550804812</v>
+        <v>0.1316557859548394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -1429,19 +1429,19 @@
         <v>156006</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132126</v>
+        <v>133697</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182309</v>
+        <v>182130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08082430030868663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06845216289197738</v>
+        <v>0.06926631773349486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09445104893013043</v>
+        <v>0.09435867558644782</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>22699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14042</v>
+        <v>14188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33948</v>
+        <v>34818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02360013164505605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01459989375028711</v>
+        <v>0.01475158975343784</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03529585930354705</v>
+        <v>0.03620039015063718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1479,19 +1479,19 @@
         <v>31181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20895</v>
+        <v>21757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43934</v>
+        <v>43996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03219907301225597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02157691549235396</v>
+        <v>0.02246737699759872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04536816126111479</v>
+        <v>0.04543170620448784</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -1500,19 +1500,19 @@
         <v>53880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40536</v>
+        <v>40206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71659</v>
+        <v>71339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02791428823655188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02100112370522569</v>
+        <v>0.02083009883006232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03712551403835842</v>
+        <v>0.03695954367395415</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>357700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>330877</v>
+        <v>328928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>384484</v>
+        <v>384469</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5271852689177323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4876527558888987</v>
+        <v>0.4847807632484169</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5666601417872423</v>
+        <v>0.5666373516829853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>346</v>
@@ -1625,19 +1625,19 @@
         <v>338761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310570</v>
+        <v>314088</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363459</v>
+        <v>365433</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4953792085093204</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4541551320582043</v>
+        <v>0.459299427754513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5314968518190019</v>
+        <v>0.534383110232059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>684</v>
@@ -1646,19 +1646,19 @@
         <v>696461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>655647</v>
+        <v>660370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>729683</v>
+        <v>731477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5112199956134765</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4812616541859588</v>
+        <v>0.4847288574377653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.535606090206133</v>
+        <v>0.5369227660309769</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>168681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148072</v>
+        <v>147345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194462</v>
+        <v>193885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2486053191637433</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2182315769261471</v>
+        <v>0.2171597414559722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2866014121052393</v>
+        <v>0.2857512749980187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -1696,19 +1696,19 @@
         <v>152984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132111</v>
+        <v>132203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174822</v>
+        <v>176041</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2237135425625028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1931891240712648</v>
+        <v>0.1933246926414681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2556473874211956</v>
+        <v>0.2574295290789764</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>321</v>
@@ -1717,19 +1717,19 @@
         <v>321665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292586</v>
+        <v>294230</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354551</v>
+        <v>355741</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2361107187207981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2147656874353705</v>
+        <v>0.215972617102403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2602492302133361</v>
+        <v>0.2611233977692999</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>98396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80027</v>
+        <v>81812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>118884</v>
+        <v>118653</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1450173005296775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1179451532166059</v>
+        <v>0.1205766229419978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1752134517601732</v>
+        <v>0.1748738718044416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>110</v>
@@ -1767,19 +1767,19 @@
         <v>110606</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92106</v>
+        <v>92656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131188</v>
+        <v>128563</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1617428965984332</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.134689613140425</v>
+        <v>0.1354932654496043</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1918404761298202</v>
+        <v>0.1880018614802385</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>204</v>
@@ -1788,19 +1788,19 @@
         <v>209002</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>183910</v>
+        <v>184456</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>238875</v>
+        <v>238097</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1534128298403006</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1349949260208988</v>
+        <v>0.1353957441342577</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1753407673434501</v>
+        <v>0.1747695417365402</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>42117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29937</v>
+        <v>30563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55681</v>
+        <v>57941</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06207213642161875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04412135829716713</v>
+        <v>0.04504386564259458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08206438901724998</v>
+        <v>0.08539424462698217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1838,19 +1838,19 @@
         <v>69642</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55606</v>
+        <v>55745</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87084</v>
+        <v>86972</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1018389113946733</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08131473816540413</v>
+        <v>0.0815169374181398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1273460664060589</v>
+        <v>0.1271812950545122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -1859,19 +1859,19 @@
         <v>111758</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92221</v>
+        <v>92248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133976</v>
+        <v>132606</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08203334578616311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06769293585393545</v>
+        <v>0.06771236454108663</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09834209785575353</v>
+        <v>0.09733628372818486</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>11616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5644</v>
+        <v>5918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20518</v>
+        <v>21018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01711997496722818</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008317546279159626</v>
+        <v>0.008722381265233033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03024040766986066</v>
+        <v>0.03097666841002644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1909,19 +1909,19 @@
         <v>11848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6144</v>
+        <v>6185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19506</v>
+        <v>18957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01732544093507031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00898385507700661</v>
+        <v>0.009044237352154925</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0285236479926794</v>
+        <v>0.02772098488738198</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1930,19 +1930,19 @@
         <v>23464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14755</v>
+        <v>14915</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35479</v>
+        <v>35907</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01722311003926167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01083020668000431</v>
+        <v>0.01094831369461868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02604217095454385</v>
+        <v>0.02635631163304204</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>470232</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>440367</v>
+        <v>441893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>501554</v>
+        <v>498119</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4990667262616348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4673705297871799</v>
+        <v>0.4689907255812814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5323097738477036</v>
+        <v>0.5286638501293848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>465</v>
@@ -2055,19 +2055,19 @@
         <v>478017</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>447047</v>
+        <v>446382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>509435</v>
+        <v>509073</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4602464042500416</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4304273227623142</v>
+        <v>0.4297871210608425</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4904957386366098</v>
+        <v>0.4901475670362224</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>963</v>
@@ -2076,19 +2076,19 @@
         <v>948249</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>906506</v>
+        <v>904039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>990004</v>
+        <v>990989</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4787120421351257</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4576386850751736</v>
+        <v>0.4563932864605886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4997913583675183</v>
+        <v>0.5002886349845653</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>260759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234899</v>
+        <v>236973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>287993</v>
+        <v>287616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2767486236213019</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2493030011859001</v>
+        <v>0.2515040043449663</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3056525631621684</v>
+        <v>0.3052533485310417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>261</v>
@@ -2126,19 +2126,19 @@
         <v>271251</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>243306</v>
+        <v>245268</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>297364</v>
+        <v>300058</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.261167286582202</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2342606672909769</v>
+        <v>0.2361500439182398</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2863093480561797</v>
+        <v>0.2889024017432213</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>533</v>
@@ -2147,19 +2147,19 @@
         <v>532010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>492188</v>
+        <v>491354</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>568107</v>
+        <v>571985</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2685788512632869</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2484749821781432</v>
+        <v>0.2480542903570332</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2868016981435927</v>
+        <v>0.2887597443647311</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>133755</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>112987</v>
+        <v>113337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155109</v>
+        <v>154638</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1419565185405383</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1199150074176843</v>
+        <v>0.1202873719137563</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1646200491396606</v>
+        <v>0.1641205353306595</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -2197,19 +2197,19 @@
         <v>150269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>127446</v>
+        <v>126547</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176296</v>
+        <v>175101</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1446820746582303</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1227075412126158</v>
+        <v>0.1218425334543052</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1697422028484928</v>
+        <v>0.1685917054695417</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>287</v>
@@ -2218,19 +2218,19 @@
         <v>284023</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>253493</v>
+        <v>254977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>319254</v>
+        <v>314288</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1433856111129319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.127972773402752</v>
+        <v>0.1287221836321278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1611715538225953</v>
+        <v>0.1586646789746367</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>56957</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43844</v>
+        <v>43442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72938</v>
+        <v>73035</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06045001995476507</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04653267601797233</v>
+        <v>0.04610642696399488</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07741071740978474</v>
+        <v>0.07751411003931391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>104</v>
@@ -2268,19 +2268,19 @@
         <v>112215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>92006</v>
+        <v>92795</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133208</v>
+        <v>132391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1080437117259773</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08858585603503658</v>
+        <v>0.08934560547384479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1282558641173612</v>
+        <v>0.1274687394462548</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -2289,19 +2289,19 @@
         <v>169173</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>146815</v>
+        <v>146081</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197105</v>
+        <v>198747</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08540485062639513</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07411782851851585</v>
+        <v>0.07374734701353565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09950595452914439</v>
+        <v>0.1003351970692256</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>20520</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12351</v>
+        <v>12511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32115</v>
+        <v>32571</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02177811162175986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01310868562878481</v>
+        <v>0.01327788836083756</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03408416988026904</v>
+        <v>0.03456866347839098</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -2339,19 +2339,19 @@
         <v>26859</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18449</v>
+        <v>18175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40642</v>
+        <v>41096</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02586052278354884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01776288339526094</v>
+        <v>0.01749968535957109</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03913141860985569</v>
+        <v>0.03956802343185632</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -2360,19 +2360,19 @@
         <v>47379</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35409</v>
+        <v>34574</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65137</v>
+        <v>64196</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0239186448622604</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01787589644801325</v>
+        <v>0.01745405020548849</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03288382379671302</v>
+        <v>0.03240870378221046</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1615568</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1558160</v>
+        <v>1557400</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1674219</v>
+        <v>1668763</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4930708826853806</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4755499471458251</v>
+        <v>0.4753181587187689</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5109710327635545</v>
+        <v>0.5093060928883936</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1468</v>
@@ -2485,19 +2485,19 @@
         <v>1486728</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1427804</v>
+        <v>1425164</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1540442</v>
+        <v>1545272</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4399650045282976</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4225276427497933</v>
+        <v>0.4217464835525069</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4558603242776064</v>
+        <v>0.457289660201635</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3046</v>
@@ -2506,19 +2506,19 @@
         <v>3102297</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3014670</v>
+        <v>3018769</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3195615</v>
+        <v>3191155</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4661084076558452</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4529427605347763</v>
+        <v>0.4535586986844028</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4801290359315884</v>
+        <v>0.4794590462883045</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>932393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>883959</v>
+        <v>880635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>982407</v>
+        <v>978953</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2845661548126278</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2697841624831011</v>
+        <v>0.2687695122385047</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2998303375980976</v>
+        <v>0.298776045440544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>860</v>
@@ -2556,19 +2556,19 @@
         <v>876311</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>823730</v>
+        <v>826206</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>929238</v>
+        <v>925647</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2593253229974227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2437650041903534</v>
+        <v>0.2444976252674645</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2749877304438008</v>
+        <v>0.2739252479528113</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1785</v>
@@ -2577,19 +2577,19 @@
         <v>1808705</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1735034</v>
+        <v>1730444</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1893921</v>
+        <v>1885511</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2717510894910613</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2606822656688421</v>
+        <v>0.2599926422179222</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2845545403331767</v>
+        <v>0.2832908713104677</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>500663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>461762</v>
+        <v>455607</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>543475</v>
+        <v>540182</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1528022085199497</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1409297781699131</v>
+        <v>0.1390511701130947</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1658683572571739</v>
+        <v>0.1648635358982229</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>541</v>
@@ -2627,19 +2627,19 @@
         <v>558981</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>515103</v>
+        <v>515603</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>602866</v>
+        <v>606077</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1654182188845713</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1524336452558372</v>
+        <v>0.1525814344275742</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1784049759077308</v>
+        <v>0.1793552177185513</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1035</v>
@@ -2648,19 +2648,19 @@
         <v>1059644</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1000316</v>
+        <v>1003457</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1123584</v>
+        <v>1120747</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1592075044350706</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1502936535972388</v>
+        <v>0.1507656636057101</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1688143199601624</v>
+        <v>0.1683880828930345</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>171144</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>144437</v>
+        <v>145056</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>197469</v>
+        <v>200269</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05223307869959336</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04408206462905057</v>
+        <v>0.04427097567597184</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06026756372798549</v>
+        <v>0.06112196697171739</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>354</v>
@@ -2698,19 +2698,19 @@
         <v>377858</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>342170</v>
+        <v>340799</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>414809</v>
+        <v>416125</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1118188112071411</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1012578338695823</v>
+        <v>0.1008520911191311</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1227538164334878</v>
+        <v>0.1231430162486739</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>521</v>
@@ -2719,19 +2719,19 @@
         <v>549002</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>506341</v>
+        <v>504787</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>601089</v>
+        <v>595734</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08248545151789419</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07607579021672557</v>
+        <v>0.07584238872550132</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09031135925395684</v>
+        <v>0.08950671475552927</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>56775</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42772</v>
+        <v>42691</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>72803</v>
+        <v>75166</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0173276752824485</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01305415302884752</v>
+        <v>0.01302924065646372</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02221953064332133</v>
+        <v>0.02294051901289097</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -2769,19 +2769,19 @@
         <v>79319</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61676</v>
+        <v>61906</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100171</v>
+        <v>97826</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02347264238256729</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01825164751591152</v>
+        <v>0.01831978835295114</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02964350827414498</v>
+        <v>0.02894957645030331</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>124</v>
@@ -2790,19 +2790,19 @@
         <v>136094</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>110486</v>
+        <v>114246</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>161218</v>
+        <v>161330</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02044754690012877</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01660009527975436</v>
+        <v>0.01716500305668487</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02422238265604537</v>
+        <v>0.02423918796018789</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>402798</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>376304</v>
+        <v>374116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>429568</v>
+        <v>427621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5740386856840778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5362804019854893</v>
+        <v>0.5331621131098582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6121889775635272</v>
+        <v>0.6094136674328735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>303</v>
@@ -3155,19 +3155,19 @@
         <v>319681</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290166</v>
+        <v>292070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344528</v>
+        <v>349119</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4586205684426673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4162772187927009</v>
+        <v>0.4190085863577179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.49426557877842</v>
+        <v>0.500852774145352</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>692</v>
@@ -3176,19 +3176,19 @@
         <v>722480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>681707</v>
+        <v>684337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756186</v>
+        <v>759016</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5165211269287842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4873717705487254</v>
+        <v>0.4892521217006377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5406187353833984</v>
+        <v>0.5426420051815346</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>162274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139818</v>
+        <v>140931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184479</v>
+        <v>187677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2312616052834303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1992586918657136</v>
+        <v>0.2008446614476995</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2629058788312485</v>
+        <v>0.267463903704501</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -3226,19 +3226,19 @@
         <v>199841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177823</v>
+        <v>172931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226212</v>
+        <v>224511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.286695661383374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.255108387864913</v>
+        <v>0.2480892003672079</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3245278281403278</v>
+        <v>0.3220870913327145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>334</v>
@@ -3247,19 +3247,19 @@
         <v>362116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>329708</v>
+        <v>328196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>398952</v>
+        <v>396009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2588866580479263</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2357178094434337</v>
+        <v>0.2346367521390542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2852218303771639</v>
+        <v>0.2831180684263897</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>94959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78862</v>
+        <v>79106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116290</v>
+        <v>114911</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.135328573697658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1123879689121167</v>
+        <v>0.1127359634042871</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1657285022998655</v>
+        <v>0.1637631563343719</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -3297,19 +3297,19 @@
         <v>78135</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61688</v>
+        <v>61757</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97008</v>
+        <v>96107</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1120935558994373</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08849891740599113</v>
+        <v>0.08859793765336807</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1391688644713663</v>
+        <v>0.1378762602961217</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>162</v>
@@ -3318,19 +3318,19 @@
         <v>173094</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>149364</v>
+        <v>148655</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>199838</v>
+        <v>199516</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1237496159626763</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1067842402560939</v>
+        <v>0.1062779185560319</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1428698625368021</v>
+        <v>0.1426399258523286</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>23648</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15532</v>
+        <v>15696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34609</v>
+        <v>35350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03370104727490834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02213537836182806</v>
+        <v>0.02236940039447789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04932239023575504</v>
+        <v>0.05037756205346795</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3368,19 +3368,19 @@
         <v>61295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47139</v>
+        <v>46103</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77925</v>
+        <v>78451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08793500867608457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06762692470219776</v>
+        <v>0.06614045841881337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1117919083283767</v>
+        <v>0.1125475672588974</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3389,19 +3389,19 @@
         <v>84943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66466</v>
+        <v>68465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103126</v>
+        <v>105202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0607280438676519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0475186231227166</v>
+        <v>0.04894765954416945</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07372746733860559</v>
+        <v>0.07521186861346835</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>18012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10685</v>
+        <v>10641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28376</v>
+        <v>29568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0256700880599257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01522724583781657</v>
+        <v>0.01516463346325632</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04043914944139229</v>
+        <v>0.04213745280446601</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -3439,19 +3439,19 @@
         <v>38097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27060</v>
+        <v>27298</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51977</v>
+        <v>50714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05465520559843685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03882112583367824</v>
+        <v>0.03916273207974928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07456748209463156</v>
+        <v>0.07275501025737914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -3460,19 +3460,19 @@
         <v>56110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42750</v>
+        <v>41829</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73066</v>
+        <v>72746</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04011455519296132</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03056287972887178</v>
+        <v>0.0299045926338101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05223706518310357</v>
+        <v>0.05200837847558993</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>523723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>494262</v>
+        <v>489593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>563636</v>
+        <v>553020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5160319892854417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.487002893764265</v>
+        <v>0.482402660564227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.555358380896609</v>
+        <v>0.5448984877427935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>413</v>
@@ -3585,19 +3585,19 @@
         <v>448844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>418305</v>
+        <v>417468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>484210</v>
+        <v>484566</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.434848847671269</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4052618449117209</v>
+        <v>0.4044510388556055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4691125687198215</v>
+        <v>0.4694573214141981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>902</v>
@@ -3606,19 +3606,19 @@
         <v>972567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>926152</v>
+        <v>921692</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1018476</v>
+        <v>1017665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4750977849887443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4524238702988111</v>
+        <v>0.4502454068954956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.497524001521178</v>
+        <v>0.4971278585534057</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>276812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247141</v>
+        <v>247846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305604</v>
+        <v>305169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2727469718793222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2435114826841588</v>
+        <v>0.244206091403402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3011162879089442</v>
+        <v>0.3006871073555463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -3656,19 +3656,19 @@
         <v>281566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>255070</v>
+        <v>252608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311541</v>
+        <v>312435</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2727867661375145</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2471168738368179</v>
+        <v>0.2447314171779822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3018273669463715</v>
+        <v>0.3026934206453569</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>510</v>
@@ -3677,19 +3677,19 @@
         <v>558378</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>519735</v>
+        <v>517742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>602054</v>
+        <v>601396</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2727670369601048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2538898182385458</v>
+        <v>0.2529164574984339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2941023973800872</v>
+        <v>0.2937812365690563</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>134821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112760</v>
+        <v>112539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159734</v>
+        <v>156704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1328407924903451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.111103712240278</v>
+        <v>0.1108858927536015</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1573884547062862</v>
+        <v>0.1544028636450853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -3727,19 +3727,19 @@
         <v>170677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>149326</v>
+        <v>146147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>198732</v>
+        <v>195992</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1653552552051881</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1446703318947546</v>
+        <v>0.1415900535612014</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1925349909629373</v>
+        <v>0.1898811548145261</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>275</v>
@@ -3748,19 +3748,19 @@
         <v>305498</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>274760</v>
+        <v>273712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>343648</v>
+        <v>338799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1492352511538465</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1342199589847048</v>
+        <v>0.1337080356988554</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1678715886100542</v>
+        <v>0.1655026838550557</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>67901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51741</v>
+        <v>52161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86407</v>
+        <v>89888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06690407571003608</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05098110154482523</v>
+        <v>0.05139480007311172</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08513772579400371</v>
+        <v>0.08856772594148712</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -3798,19 +3798,19 @@
         <v>90951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74001</v>
+        <v>74528</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112811</v>
+        <v>110700</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08811536948753247</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07169348139532176</v>
+        <v>0.07220392040179556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1092930138241101</v>
+        <v>0.1072484538283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -3819,19 +3819,19 @@
         <v>158853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135744</v>
+        <v>135501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186499</v>
+        <v>189179</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07759924487473523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06631059652508106</v>
+        <v>0.06619185025216205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09110427848763249</v>
+        <v>0.09241354004104778</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>11647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5934</v>
+        <v>6026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21677</v>
+        <v>22075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01147617063485491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005846958369692387</v>
+        <v>0.005937259506343691</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0213587886423391</v>
+        <v>0.02175113615141654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -3869,19 +3869,19 @@
         <v>40146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29214</v>
+        <v>27263</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57016</v>
+        <v>55643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03889376149849597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02830309855989219</v>
+        <v>0.02641255583816282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05523859769891214</v>
+        <v>0.05390759226835004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>45</v>
@@ -3890,19 +3890,19 @@
         <v>51793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38355</v>
+        <v>38900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69410</v>
+        <v>69875</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02530068202256915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01873612573846622</v>
+        <v>0.01900270353040482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03390655735808296</v>
+        <v>0.03413398906277102</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>394698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>363340</v>
+        <v>369293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>420661</v>
+        <v>426374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.523321939511362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4817446822567089</v>
+        <v>0.4896381090887266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5577450710333434</v>
+        <v>0.5653195478357</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -4015,19 +4015,19 @@
         <v>356605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>329109</v>
+        <v>331226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385822</v>
+        <v>388900</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4588481543613189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4234685276542551</v>
+        <v>0.4261926628123389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4964417320839906</v>
+        <v>0.5004024189654904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>685</v>
@@ -4036,19 +4036,19 @@
         <v>751303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>711111</v>
+        <v>714498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>789817</v>
+        <v>792954</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4906017806293481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4643563819379362</v>
+        <v>0.4665679643184579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.515751339764947</v>
+        <v>0.5177997960751906</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>174243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149896</v>
+        <v>148840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198480</v>
+        <v>199112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2310255327904249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1987442316210143</v>
+        <v>0.1973438789170652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2631608462650509</v>
+        <v>0.2639983599009409</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -4086,19 +4086,19 @@
         <v>198497</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172816</v>
+        <v>175119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222630</v>
+        <v>224510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2554084786680496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.222364763532936</v>
+        <v>0.2253283791805042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2864611998469183</v>
+        <v>0.2888803526017547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -4107,19 +4107,19 @@
         <v>372740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337064</v>
+        <v>334973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409501</v>
+        <v>404513</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2433997692536752</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2201029804946054</v>
+        <v>0.2187376356513051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2674048958380584</v>
+        <v>0.2641475080827914</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>109034</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90389</v>
+        <v>90799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128476</v>
+        <v>129570</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1445658137984554</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1198444866610184</v>
+        <v>0.1203882678174414</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1703441207412194</v>
+        <v>0.171794396645924</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>99</v>
@@ -4157,19 +4157,19 @@
         <v>109050</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90109</v>
+        <v>91548</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129463</v>
+        <v>130794</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1403155041316274</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.115943800701764</v>
+        <v>0.1177964927712751</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1665817804252019</v>
+        <v>0.1682945714234801</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>199</v>
@@ -4178,19 +4178,19 @@
         <v>218084</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>192464</v>
+        <v>189250</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>247879</v>
+        <v>246317</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1424088005678419</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.125679226918158</v>
+        <v>0.1235807533038926</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1618654991679131</v>
+        <v>0.1608455640654809</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>48148</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36611</v>
+        <v>34930</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64755</v>
+        <v>64959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06383860662949555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04854201989932869</v>
+        <v>0.04631308663082889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08585784024852502</v>
+        <v>0.08612806872362389</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -4228,19 +4228,19 @@
         <v>75452</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59632</v>
+        <v>58433</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94663</v>
+        <v>91522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09708541159263559</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07672961374465223</v>
+        <v>0.07518694522222823</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1218047287077005</v>
+        <v>0.1177621697377048</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -4249,19 +4249,19 @@
         <v>123600</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103641</v>
+        <v>100161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145690</v>
+        <v>144349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08071121211064811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06767744642661695</v>
+        <v>0.06540554450021341</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09513553026011978</v>
+        <v>0.09425999423226956</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>28093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18035</v>
+        <v>17797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42318</v>
+        <v>44063</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03724810727026226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02391206501220292</v>
+        <v>0.02359612956245272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05610812587714798</v>
+        <v>0.0584217969585045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -4299,19 +4299,19 @@
         <v>37570</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26943</v>
+        <v>25325</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51371</v>
+        <v>51227</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04834245124636847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03466826071302858</v>
+        <v>0.03258634870161431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06609985670933134</v>
+        <v>0.0659142632578491</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -4320,19 +4320,19 @@
         <v>65664</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50750</v>
+        <v>49767</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86178</v>
+        <v>83225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0428784374384867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03313952667066879</v>
+        <v>0.03249816891567898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05627423723269517</v>
+        <v>0.05434629607419215</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>463891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>433186</v>
+        <v>434344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>495928</v>
+        <v>493714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.489970913189323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.457539217979793</v>
+        <v>0.4587620467324735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5238089585756103</v>
+        <v>0.5214697986660441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>423</v>
@@ -4445,19 +4445,19 @@
         <v>440016</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>407758</v>
+        <v>408288</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>473989</v>
+        <v>471305</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4191575616641875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3884291149514496</v>
+        <v>0.388934173714548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.451520350555472</v>
+        <v>0.4489637368239368</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>871</v>
@@ -4466,19 +4466,19 @@
         <v>903907</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>858221</v>
+        <v>860156</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>951256</v>
+        <v>951745</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4527378307178039</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4298554529052117</v>
+        <v>0.4308245078418564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4764533531172112</v>
+        <v>0.4766985467676205</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>285720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>257127</v>
+        <v>257581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>315462</v>
+        <v>314160</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3017828201327692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2715825111736898</v>
+        <v>0.2720617291003105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3331974008631812</v>
+        <v>0.3318220184313895</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>309</v>
@@ -4516,19 +4516,19 @@
         <v>324089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>293148</v>
+        <v>292963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353442</v>
+        <v>355361</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3087263179943363</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2792520761507264</v>
+        <v>0.279075545129549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3366877140456631</v>
+        <v>0.3385160999780938</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>582</v>
@@ -4537,19 +4537,19 @@
         <v>609809</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>567678</v>
+        <v>562780</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>655530</v>
+        <v>647226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3054336546569448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2843314053663774</v>
+        <v>0.2818784709898542</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3283336606980447</v>
+        <v>0.3241748323365588</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>114499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>96271</v>
+        <v>95813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138089</v>
+        <v>135746</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1209355840475919</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1016832348433786</v>
+        <v>0.1011997823098588</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1458519011173743</v>
+        <v>0.1433771434251052</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -4587,19 +4587,19 @@
         <v>140996</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>120422</v>
+        <v>119507</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>164556</v>
+        <v>163971</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1343122087781942</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1147136448291153</v>
+        <v>0.1138416388331894</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1567554725965625</v>
+        <v>0.1561977920786217</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>239</v>
@@ -4608,19 +4608,19 @@
         <v>255494</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>226362</v>
+        <v>225934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>285953</v>
+        <v>291232</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1279689041921453</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1133773058442323</v>
+        <v>0.1131632521952459</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1432248332071036</v>
+        <v>0.1458686523233929</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>61029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47399</v>
+        <v>47256</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77727</v>
+        <v>78092</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0644595848127241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05006409256906493</v>
+        <v>0.04991242073847707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08209727478772536</v>
+        <v>0.08248223382550211</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -4658,19 +4658,19 @@
         <v>85764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70283</v>
+        <v>69771</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>106249</v>
+        <v>106147</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08169883790928287</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06695165955052237</v>
+        <v>0.06646324426528685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1012125889984126</v>
+        <v>0.1011153988377179</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -4679,19 +4679,19 @@
         <v>146793</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124677</v>
+        <v>123411</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171960</v>
+        <v>169443</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07352384343722554</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06244651098705092</v>
+        <v>0.0618125347164311</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0861290811523011</v>
+        <v>0.0848683358412774</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>21635</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14056</v>
+        <v>12959</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33729</v>
+        <v>33139</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02285109781759179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0148458856757994</v>
+        <v>0.01368748185441527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03562570808424594</v>
+        <v>0.03500168870314299</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -4729,19 +4729,19 @@
         <v>58897</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44897</v>
+        <v>45688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>74817</v>
+        <v>74535</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05610507365399917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04276881659317459</v>
+        <v>0.04352183251044018</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07127089095417946</v>
+        <v>0.07100223101939258</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -4750,19 +4750,19 @@
         <v>80532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65117</v>
+        <v>63961</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>99718</v>
+        <v>101107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04033576699588044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03261498766005366</v>
+        <v>0.03203605220110808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04994530570607929</v>
+        <v>0.05064125049589305</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1785111</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1726379</v>
+        <v>1725689</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1851272</v>
+        <v>1843227</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5223309025080352</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5051457370148384</v>
+        <v>0.5049439438576756</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5416898618019994</v>
+        <v>0.5393360425344027</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1460</v>
@@ -4875,19 +4875,19 @@
         <v>1565146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1503667</v>
+        <v>1498379</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1623098</v>
+        <v>1625894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4401212614199823</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4228333744118857</v>
+        <v>0.4213462468325426</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4564173922983011</v>
+        <v>0.4572037626200555</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3150</v>
@@ -4896,19 +4896,19 @@
         <v>3350257</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3264618</v>
+        <v>3264210</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3434216</v>
+        <v>3435541</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4804092391764366</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4681291137542447</v>
+        <v>0.4680705227265413</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.492448555677852</v>
+        <v>0.4926384792374516</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>899050</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>845918</v>
+        <v>849624</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>950451</v>
+        <v>954875</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2630657023960399</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2475192288942546</v>
+        <v>0.2486034156595784</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2781060538896679</v>
+        <v>0.2794003732776376</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>928</v>
@@ -4946,19 +4946,19 @@
         <v>1003993</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>951846</v>
+        <v>950427</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1059452</v>
+        <v>1060192</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2823243353502389</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2676604644547292</v>
+        <v>0.2672612734445438</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2979194940079544</v>
+        <v>0.2981273690055887</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1762</v>
@@ -4967,19 +4967,19 @@
         <v>1903043</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1829623</v>
+        <v>1825504</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1985105</v>
+        <v>1973939</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2728863744759487</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.262358394778258</v>
+        <v>0.2617677411276801</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2846536026176092</v>
+        <v>0.2830525600186641</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>453312</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>411607</v>
+        <v>413283</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>494789</v>
+        <v>495095</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1326410400488946</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1204378192654621</v>
+        <v>0.1209283320693298</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1447773678338062</v>
+        <v>0.1448667310407182</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>456</v>
@@ -5017,19 +5017,19 @@
         <v>498857</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>458447</v>
+        <v>454507</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>544436</v>
+        <v>542344</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.140279367122082</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1289158479584122</v>
+        <v>0.1278080539886164</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.153096079817812</v>
+        <v>0.1525078522212501</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>875</v>
@@ -5038,19 +5038,19 @@
         <v>952169</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>894274</v>
+        <v>891729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1011099</v>
+        <v>1015880</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1365360987274238</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1282341823323395</v>
+        <v>0.1278692448092661</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1449863501164965</v>
+        <v>0.1456717972989247</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>200726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>173805</v>
+        <v>174481</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>229641</v>
+        <v>230244</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05873319439803119</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05085598943647607</v>
+        <v>0.05105382359812006</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06719379809768783</v>
+        <v>0.06737050288350964</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>290</v>
@@ -5088,19 +5088,19 @@
         <v>313463</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>281134</v>
+        <v>275608</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>352330</v>
+        <v>346428</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08814622629689546</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07905516907299555</v>
+        <v>0.07750139571761196</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09907560951943395</v>
+        <v>0.09741612004756328</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>478</v>
@@ -5109,19 +5109,19 @@
         <v>514189</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>467359</v>
+        <v>472944</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>558216</v>
+        <v>562852</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07373196102085434</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06701684792692648</v>
+        <v>0.0678176269948902</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08004529804726426</v>
+        <v>0.08071000744316451</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>79388</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62513</v>
+        <v>62026</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>104932</v>
+        <v>101162</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02322916064899912</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01829142547570061</v>
+        <v>0.018148992880805</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03070344386811366</v>
+        <v>0.02960054044076563</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>162</v>
@@ -5159,19 +5159,19 @@
         <v>174710</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>151822</v>
+        <v>150275</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>205524</v>
+        <v>202909</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04912880981080134</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04269260279979629</v>
+        <v>0.0422575764161713</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05779366403700518</v>
+        <v>0.05705839708156989</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>231</v>
@@ -5180,19 +5180,19 @@
         <v>254098</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>222916</v>
+        <v>222694</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>289718</v>
+        <v>289272</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03643632659933654</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03196497174302106</v>
+        <v>0.03193308110192516</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04154404944112838</v>
+        <v>0.04148007298579255</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>298575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>272910</v>
+        <v>273005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>324297</v>
+        <v>323663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4431597985687741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4050657047877797</v>
+        <v>0.4052070162043345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4813368388321637</v>
+        <v>0.4803960228537145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -5545,19 +5545,19 @@
         <v>240772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>215491</v>
+        <v>217032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266177</v>
+        <v>266156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3589006374119724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3212160844256855</v>
+        <v>0.3235134688381011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3967708024575514</v>
+        <v>0.3967393411741345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>528</v>
@@ -5566,19 +5566,19 @@
         <v>539347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500827</v>
+        <v>504577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>577937</v>
+        <v>578863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4011205332668031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3724727496509103</v>
+        <v>0.375261865716215</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4298201170212072</v>
+        <v>0.430508967454414</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>220863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196308</v>
+        <v>198596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244025</v>
+        <v>248031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3278152463147277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2913692706271911</v>
+        <v>0.2947650699512958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3621941410841959</v>
+        <v>0.3681389190470886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -5616,19 +5616,19 @@
         <v>224765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200176</v>
+        <v>199490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251454</v>
+        <v>248922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3350409124861102</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.298387461834123</v>
+        <v>0.2973656595079224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3748233639081018</v>
+        <v>0.3710492942025971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>435</v>
@@ -5637,19 +5637,19 @@
         <v>445628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410656</v>
+        <v>411534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>482128</v>
+        <v>480199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.331420334390515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3054111953362664</v>
+        <v>0.3060639341452274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3585656905502259</v>
+        <v>0.3571311286325392</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>97235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79947</v>
+        <v>80487</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117060</v>
+        <v>116401</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1443214190704436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1186610086782017</v>
+        <v>0.1194626252542215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1737462994584083</v>
+        <v>0.1727680723468635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -5687,19 +5687,19 @@
         <v>125071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106076</v>
+        <v>106337</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144628</v>
+        <v>146789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1864334123788935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1581195621784777</v>
+        <v>0.1585093478413705</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2155858013837025</v>
+        <v>0.2188069472565889</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -5708,19 +5708,19 @@
         <v>222306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>195986</v>
+        <v>197729</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252274</v>
+        <v>250567</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1653322769378061</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1457577139315872</v>
+        <v>0.1470541448792184</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1876198842594597</v>
+        <v>0.1863500979527678</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>52766</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39537</v>
+        <v>39886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66836</v>
+        <v>67963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07831731181629177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05868240164067092</v>
+        <v>0.05920125923317027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09920119546659835</v>
+        <v>0.1008735251676094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -5758,19 +5758,19 @@
         <v>54019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40296</v>
+        <v>41648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69919</v>
+        <v>68835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08052176977116546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06006643241310795</v>
+        <v>0.06208190820999262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1042230004614538</v>
+        <v>0.1026074966862828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -5779,19 +5779,19 @@
         <v>106784</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87452</v>
+        <v>87053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127988</v>
+        <v>130655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07941717789067049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06503921868090584</v>
+        <v>0.0647427435193613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09518644913658396</v>
+        <v>0.09717041819402143</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>4303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1246</v>
+        <v>1068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10812</v>
+        <v>10609</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006386224229762729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001849624955985521</v>
+        <v>0.001584656650180938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01604773439011778</v>
+        <v>0.01574572883698066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -5829,19 +5829,19 @@
         <v>26233</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17601</v>
+        <v>17877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37808</v>
+        <v>38320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03910326795185841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02623588632667909</v>
+        <v>0.02664863603459143</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05635686763245394</v>
+        <v>0.05712063886932942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -5850,19 +5850,19 @@
         <v>30535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21107</v>
+        <v>21303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42422</v>
+        <v>42645</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02270967751420525</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01569741793115154</v>
+        <v>0.01584324121187919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03154955198957831</v>
+        <v>0.03171570121302462</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>448056</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>415773</v>
+        <v>414023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>483796</v>
+        <v>481178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4382263250842791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4066518716158922</v>
+        <v>0.4049400088447062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4731821366880887</v>
+        <v>0.4706215827134463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>375</v>
@@ -5975,19 +5975,19 @@
         <v>395918</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>364545</v>
+        <v>364771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>427689</v>
+        <v>428744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3796266238033146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3495446431865331</v>
+        <v>0.3497620178101924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.410090443526496</v>
+        <v>0.4111020748372891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>792</v>
@@ -5996,19 +5996,19 @@
         <v>843974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>799010</v>
+        <v>795289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>886296</v>
+        <v>886573</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4086359079130733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3868653342403658</v>
+        <v>0.3850634852273098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4291273377074415</v>
+        <v>0.4292617131010757</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>361345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326891</v>
+        <v>330867</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>394587</v>
+        <v>394228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3534177974846034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3197196705048992</v>
+        <v>0.3236081579375954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3859305507156827</v>
+        <v>0.3855789521213508</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>332</v>
@@ -6046,19 +6046,19 @@
         <v>356835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326001</v>
+        <v>327068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389188</v>
+        <v>389958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3421521172538924</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3125865632572569</v>
+        <v>0.3136102687186245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3731742700973409</v>
+        <v>0.3739125229193532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>666</v>
@@ -6067,19 +6067,19 @@
         <v>718180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>679256</v>
+        <v>674510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>766199</v>
+        <v>758861</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3477290965107568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.328882721072969</v>
+        <v>0.3265848636229946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3709791031752087</v>
+        <v>0.3674257371521321</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>156857</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134002</v>
+        <v>135075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>182095</v>
+        <v>182270</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1534159999988233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1310622770101673</v>
+        <v>0.1321118098636601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1781004656179631</v>
+        <v>0.1782714158599731</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>158</v>
@@ -6117,19 +6117,19 @@
         <v>169526</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145761</v>
+        <v>144869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>197153</v>
+        <v>196159</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1625500956784284</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1397631430099629</v>
+        <v>0.1389078709557817</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1890409542164168</v>
+        <v>0.1880877584630983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>307</v>
@@ -6138,19 +6138,19 @@
         <v>326383</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>293175</v>
+        <v>293621</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>358675</v>
+        <v>361808</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1580283392383242</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1419495507514533</v>
+        <v>0.1421656518752035</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1736633258859394</v>
+        <v>0.175180512950261</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>38516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27772</v>
+        <v>26634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52488</v>
+        <v>52270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03767119402353807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02716256963288123</v>
+        <v>0.02605011052956221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05133669436821769</v>
+        <v>0.05112303727746016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -6188,19 +6188,19 @@
         <v>92693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74696</v>
+        <v>72721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110811</v>
+        <v>112031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08887855810239101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07162213455299693</v>
+        <v>0.06972914670516191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1062512114296004</v>
+        <v>0.1074214309835784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -6209,19 +6209,19 @@
         <v>131209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110143</v>
+        <v>111325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157331</v>
+        <v>157560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06352878770078242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0533293576325003</v>
+        <v>0.05390133947231952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07617685799938299</v>
+        <v>0.07628743993231868</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>17656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10741</v>
+        <v>9998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27207</v>
+        <v>26789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01726868340875612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0105054836684161</v>
+        <v>0.009779087106390954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02661013628554239</v>
+        <v>0.02620129063443532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -6259,19 +6259,19 @@
         <v>27942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19471</v>
+        <v>18664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39708</v>
+        <v>41133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02679260516197365</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01866965642465046</v>
+        <v>0.01789619868484588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03807445822568038</v>
+        <v>0.0394403087367159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -6280,19 +6280,19 @@
         <v>45598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33915</v>
+        <v>33262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61194</v>
+        <v>60923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02207786863706331</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01642115050799149</v>
+        <v>0.01610480637825818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02962897388266559</v>
+        <v>0.029497733894263</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>307325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>278744</v>
+        <v>279984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>334439</v>
+        <v>333043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4056886532268513</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3679592811367902</v>
+        <v>0.3695961540533571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4414797057726364</v>
+        <v>0.4396379393065297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -6405,19 +6405,19 @@
         <v>288978</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260402</v>
+        <v>262224</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>315015</v>
+        <v>315768</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3698837780283555</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3333077430301457</v>
+        <v>0.3356401037557103</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4032106627748366</v>
+        <v>0.4041744385056466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>563</v>
@@ -6426,19 +6426,19 @@
         <v>596303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>558949</v>
+        <v>554417</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>635080</v>
+        <v>634488</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3875101808026331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3632353824329437</v>
+        <v>0.3602904373614272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4127094732120306</v>
+        <v>0.4123250074104576</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>256680</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>227639</v>
+        <v>232064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283793</v>
+        <v>285359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3388334541190617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3004976619413452</v>
+        <v>0.3063384497580948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3746243540103258</v>
+        <v>0.3766916553094568</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>248</v>
@@ -6476,19 +6476,19 @@
         <v>263823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238336</v>
+        <v>239428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>292277</v>
+        <v>291171</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3376868409418239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3050640919456614</v>
+        <v>0.3064615598840817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3741063939630809</v>
+        <v>0.3726911930683839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>483</v>
@@ -6497,19 +6497,19 @@
         <v>520503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>484386</v>
+        <v>481183</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>559083</v>
+        <v>559561</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3382513078077533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3147801112850229</v>
+        <v>0.3126986423646463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3633227967212333</v>
+        <v>0.3636330074354467</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>157373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135192</v>
+        <v>138113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182413</v>
+        <v>183692</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2077419075268921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1784619955613581</v>
+        <v>0.1823176503927322</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2407964466597138</v>
+        <v>0.2424848728851223</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>153</v>
@@ -6547,19 +6547,19 @@
         <v>170478</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>147372</v>
+        <v>147134</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>193678</v>
+        <v>196553</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2182075050885065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.188631942406506</v>
+        <v>0.1883281032239437</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2479028140218734</v>
+        <v>0.2515828297134533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>293</v>
@@ -6568,19 +6568,19 @@
         <v>327851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>291225</v>
+        <v>296487</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>360543</v>
+        <v>363342</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2130553899960271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1892537300884533</v>
+        <v>0.1926736631036269</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2343002978737906</v>
+        <v>0.236119573694503</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>29625</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20263</v>
+        <v>19292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43594</v>
+        <v>40709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03910707874472875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0267487197880239</v>
+        <v>0.02546708292823584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0575469540170496</v>
+        <v>0.0537389226967878</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -6618,19 +6618,19 @@
         <v>35852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24729</v>
+        <v>24671</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49120</v>
+        <v>48322</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0458898844026684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03165236302726974</v>
+        <v>0.0315784713239645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06287244845063973</v>
+        <v>0.06185043439651771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -6639,19 +6639,19 @@
         <v>65477</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48861</v>
+        <v>50080</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82916</v>
+        <v>83752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04255077307205508</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03175229523418435</v>
+        <v>0.0325446677121033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05388358046973044</v>
+        <v>0.05442656245658093</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>6537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2243</v>
+        <v>2258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16428</v>
+        <v>14742</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008628906382466149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002960968802426358</v>
+        <v>0.00298129302385736</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02168655903811609</v>
+        <v>0.01946072458576253</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6689,19 +6689,19 @@
         <v>22135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14598</v>
+        <v>13543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33130</v>
+        <v>32992</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02833199153864563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01868473447208721</v>
+        <v>0.01733482824352996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04240573681953713</v>
+        <v>0.04222830157599653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -6710,19 +6710,19 @@
         <v>28672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18504</v>
+        <v>19565</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41790</v>
+        <v>41699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01863234832153144</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01202487391873033</v>
+        <v>0.01271464915020897</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02715727157777385</v>
+        <v>0.02709836812375162</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>398139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>369054</v>
+        <v>368961</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>428367</v>
+        <v>427322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4256785008852392</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3945812221108542</v>
+        <v>0.3944822990298059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4579970327299511</v>
+        <v>0.456879665897889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>390</v>
@@ -6835,19 +6835,19 @@
         <v>421569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>391960</v>
+        <v>386184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>455877</v>
+        <v>453258</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.404315908175354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3759185802696481</v>
+        <v>0.3703785009571988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4372199990934634</v>
+        <v>0.4347080588310472</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>783</v>
@@ -6856,19 +6856,19 @@
         <v>819709</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>773993</v>
+        <v>777047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>864964</v>
+        <v>862981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4144174052295166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3913053592096031</v>
+        <v>0.3928491006379737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4372972905003445</v>
+        <v>0.4362947406120088</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>299325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>270277</v>
+        <v>272111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>328724</v>
+        <v>325680</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3200296358283851</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2889717126194147</v>
+        <v>0.2909324615203199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3514616380611914</v>
+        <v>0.3482075600565167</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>296</v>
@@ -6906,19 +6906,19 @@
         <v>314851</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285300</v>
+        <v>282712</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>344446</v>
+        <v>345422</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3019650536924064</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2736238367809798</v>
+        <v>0.2711414977531649</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3303486429766292</v>
+        <v>0.3312848739812106</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>601</v>
@@ -6927,19 +6927,19 @@
         <v>614176</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>570099</v>
+        <v>578688</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>657876</v>
+        <v>652652</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3105070563280148</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.288223140130787</v>
+        <v>0.2925652075357675</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3326003318252803</v>
+        <v>0.3299589466200067</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>158286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137313</v>
+        <v>137448</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>182503</v>
+        <v>185365</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1692350363088949</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1468114581545014</v>
+        <v>0.1469556540357797</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1951270082351703</v>
+        <v>0.1981871283282735</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -6977,19 +6977,19 @@
         <v>163505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>138945</v>
+        <v>139659</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>188555</v>
+        <v>189990</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1568134781282172</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1332583719249398</v>
+        <v>0.1339436248157892</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1808382015771617</v>
+        <v>0.1822141537318095</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>302</v>
@@ -6998,19 +6998,19 @@
         <v>321792</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>290897</v>
+        <v>287917</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>361366</v>
+        <v>357717</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1626871253523279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1470678485742671</v>
+        <v>0.1455614990868539</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1826944048121315</v>
+        <v>0.1808498405913724</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>48881</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37095</v>
+        <v>35476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64554</v>
+        <v>62492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05226253420471217</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03966051549796142</v>
+        <v>0.03792978563294598</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06901902771086868</v>
+        <v>0.06681460569616031</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -7048,19 +7048,19 @@
         <v>91996</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74923</v>
+        <v>72656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>112525</v>
+        <v>111782</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08823085513363996</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07185705898195807</v>
+        <v>0.06968261936438158</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1079197508545412</v>
+        <v>0.1072074275035058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -7069,19 +7069,19 @@
         <v>140877</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117090</v>
+        <v>117451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>166313</v>
+        <v>166353</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07122290610605712</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05919667139355714</v>
+        <v>0.05937947934803912</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08408233402925902</v>
+        <v>0.08410251571175761</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>30673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21103</v>
+        <v>20947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44743</v>
+        <v>44018</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03279429277276867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.022562178819299</v>
+        <v>0.02239548914561288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04783751908344298</v>
+        <v>0.04706254084163206</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -7119,19 +7119,19 @@
         <v>50752</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38181</v>
+        <v>37731</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67967</v>
+        <v>65870</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04867470487038246</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03661843919919015</v>
+        <v>0.03618716597775161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06518540800525037</v>
+        <v>0.06317454063440527</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -7140,19 +7140,19 @@
         <v>81424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65815</v>
+        <v>62092</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>103646</v>
+        <v>100413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04116550698408356</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03327372176982209</v>
+        <v>0.03139153698944595</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05239974937660467</v>
+        <v>0.0507654099591156</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1452096</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1395326</v>
+        <v>1397722</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1516357</v>
+        <v>1511825</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4284710674372927</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4117200522970219</v>
+        <v>0.4124269756726611</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4474325983225692</v>
+        <v>0.446095316967802</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1283</v>
@@ -7265,19 +7265,19 @@
         <v>1347236</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1287816</v>
+        <v>1290495</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1406827</v>
+        <v>1411391</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3808214297167697</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3640252311484464</v>
+        <v>0.3647825288191703</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3976657942336941</v>
+        <v>0.398956029452544</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2666</v>
@@ -7286,19 +7286,19 @@
         <v>2799332</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2720150</v>
+        <v>2716739</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2877021</v>
+        <v>2878752</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4041348076459255</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3927034151896107</v>
+        <v>0.3922109807630472</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4153505595190885</v>
+        <v>0.4156005070094338</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1138213</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1081489</v>
+        <v>1079888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1191187</v>
+        <v>1192023</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3358534621703281</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3191157794152796</v>
+        <v>0.3186435105384343</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3514844254018838</v>
+        <v>0.3517312092423484</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1096</v>
@@ -7336,19 +7336,19 @@
         <v>1160274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1104715</v>
+        <v>1096436</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1219381</v>
+        <v>1213269</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3279731331936949</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3122682170283066</v>
+        <v>0.3099281863429709</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3446808082762815</v>
+        <v>0.3429531354746208</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2185</v>
@@ -7357,19 +7357,19 @@
         <v>2298488</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2224787</v>
+        <v>2220885</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2374836</v>
+        <v>2376218</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3318287152385338</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3211886893103721</v>
+        <v>0.320625340671264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3428509825479139</v>
+        <v>0.3430504925651837</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>569752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>523460</v>
+        <v>529508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>611776</v>
+        <v>616271</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1681170940324183</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1544578627956188</v>
+        <v>0.1562422478889329</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1805172791943759</v>
+        <v>0.1818436234003904</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>582</v>
@@ -7407,19 +7407,19 @@
         <v>628579</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>579745</v>
+        <v>590590</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>673672</v>
+        <v>679871</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1776797026816646</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1638757946439391</v>
+        <v>0.1669412798832643</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1904259843941083</v>
+        <v>0.1921780926143177</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1123</v>
@@ -7428,19 +7428,19 @@
         <v>1198331</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1138136</v>
+        <v>1136210</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1264616</v>
+        <v>1264582</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1730010373214771</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1643106727331202</v>
+        <v>0.1640326296624164</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1825704697346913</v>
+        <v>0.1825655922810374</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>169788</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>146448</v>
+        <v>146476</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>199334</v>
+        <v>200208</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05009959641543073</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0432124641297616</v>
+        <v>0.04322084902609807</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05881749953663111</v>
+        <v>0.0590754122967964</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>251</v>
@@ -7478,19 +7478,19 @@
         <v>274559</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>242700</v>
+        <v>241133</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>308747</v>
+        <v>309032</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07760935919389046</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06860362366192256</v>
+        <v>0.06816082340762143</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0872732025055634</v>
+        <v>0.0873535236875843</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>411</v>
@@ -7499,19 +7499,19 @@
         <v>444348</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>404140</v>
+        <v>406265</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>489945</v>
+        <v>488352</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06414975011653914</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05834494663130751</v>
+        <v>0.05865173926991548</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07073253241906259</v>
+        <v>0.07050249369577814</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>59168</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43988</v>
+        <v>44660</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76842</v>
+        <v>77957</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01745877994453018</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01297971729882707</v>
+        <v>0.01317775436516499</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02267383182625459</v>
+        <v>0.02300275238937424</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>120</v>
@@ -7549,19 +7549,19 @@
         <v>127062</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>107135</v>
+        <v>105665</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>154489</v>
+        <v>151663</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03591637521398036</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03028376754199911</v>
+        <v>0.02986809258250442</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04366927804241046</v>
+        <v>0.04287049841700898</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>173</v>
@@ -7570,19 +7570,19 @@
         <v>186230</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>157347</v>
+        <v>160377</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>215259</v>
+        <v>215634</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02688568967752449</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02271587787358478</v>
+        <v>0.02315335136347753</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03107653948610275</v>
+        <v>0.03113064870761532</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>394049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>364673</v>
+        <v>362693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>422795</v>
+        <v>421505</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5711717862166587</v>
+        <v>0.5711717862166588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5285916364813612</v>
+        <v>0.525721370944837</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6128383113065214</v>
+        <v>0.6109688623734654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>597</v>
@@ -7935,19 +7935,19 @@
         <v>385875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>363947</v>
+        <v>361845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>408063</v>
+        <v>409158</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5280004380443264</v>
+        <v>0.5280004380443266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4979951277582035</v>
+        <v>0.4951188345985033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5583600752554423</v>
+        <v>0.559858986381682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>983</v>
@@ -7956,19 +7956,19 @@
         <v>779925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>743047</v>
+        <v>742721</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>816427</v>
+        <v>814254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5489642654185077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5230074435476428</v>
+        <v>0.5227781343046515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5746572428159541</v>
+        <v>0.5731277162062237</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>176202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154146</v>
+        <v>155150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202003</v>
+        <v>201292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2554032883920107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2234336707194893</v>
+        <v>0.2248885127841111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2928017452959514</v>
+        <v>0.2917719803764321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -8006,19 +8006,19 @@
         <v>214389</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195050</v>
+        <v>194900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234774</v>
+        <v>234134</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2933522330234822</v>
+        <v>0.2933522330234823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2668898895647443</v>
+        <v>0.2666848511568757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3212456173944571</v>
+        <v>0.3203703524331329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>612</v>
@@ -8027,19 +8027,19 @@
         <v>390591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>360335</v>
+        <v>361225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>423678</v>
+        <v>424159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2749243831191703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2536281591787238</v>
+        <v>0.254255059681029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2982133820542524</v>
+        <v>0.2985521001868697</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>78897</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62372</v>
+        <v>61757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98509</v>
+        <v>99595</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1143607513046754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09040807551100741</v>
+        <v>0.08951656741502267</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1427881365119913</v>
+        <v>0.1443619896483638</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>148</v>
@@ -8077,19 +8077,19 @@
         <v>81355</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69142</v>
+        <v>68773</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95604</v>
+        <v>95104</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1113192446891731</v>
+        <v>0.1113192446891732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09460779184764459</v>
+        <v>0.09410315589104978</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1308167650404173</v>
+        <v>0.1301322367640317</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -8098,19 +8098,19 @@
         <v>160252</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139567</v>
+        <v>140317</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>181487</v>
+        <v>184962</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.112796187669742</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09823670812926205</v>
+        <v>0.098764880204253</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1277432058444305</v>
+        <v>0.1301888523332709</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>26287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17819</v>
+        <v>18486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37253</v>
+        <v>37747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03810279099551495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02582888213781128</v>
+        <v>0.02679463585570733</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05399748605503679</v>
+        <v>0.05471466765666555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -8148,19 +8148,19 @@
         <v>38006</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29098</v>
+        <v>29145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48553</v>
+        <v>48576</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05200408123367981</v>
+        <v>0.05200408123367983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03981492902604839</v>
+        <v>0.03987914386104244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06643539927244367</v>
+        <v>0.06646784834775356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -8169,19 +8169,19 @@
         <v>64293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52488</v>
+        <v>52594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79238</v>
+        <v>79614</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04525367242856294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03694463186970297</v>
+        <v>0.03701954280586605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05577283065293549</v>
+        <v>0.05603752687993525</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>14461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8633</v>
+        <v>8685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23424</v>
+        <v>22899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02096138309114021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01251291511146486</v>
+        <v>0.01258907652646032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0339529615471101</v>
+        <v>0.03319267690078229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -8219,19 +8219,19 @@
         <v>11199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6748</v>
+        <v>6649</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16896</v>
+        <v>17041</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01532400300933825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009233884659492748</v>
+        <v>0.009097503579987965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02311935090261028</v>
+        <v>0.02331756977774957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -8240,19 +8240,19 @@
         <v>25660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18029</v>
+        <v>17596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35767</v>
+        <v>36605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01806149136401706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01268977933738314</v>
+        <v>0.01238515613177153</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02517518946595225</v>
+        <v>0.0257650514723128</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>588426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>550250</v>
+        <v>552522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>625222</v>
+        <v>625338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5633186972317544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5267708537169206</v>
+        <v>0.5289460637790662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5985445354844879</v>
+        <v>0.5986552716864663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>750</v>
@@ -8365,19 +8365,19 @@
         <v>563007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>535298</v>
+        <v>533424</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>594111</v>
+        <v>594099</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5265944322040028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5006776036523107</v>
+        <v>0.4989243152054226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5556865190385252</v>
+        <v>0.5556750264738904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1264</v>
@@ -8386,19 +8386,19 @@
         <v>1151434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1101002</v>
+        <v>1101910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1195755</v>
+        <v>1195693</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5447430657567469</v>
+        <v>0.5447430657567468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5208839629656017</v>
+        <v>0.5213133064113902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5657115027884937</v>
+        <v>0.5656823292546372</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>301242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268343</v>
+        <v>269521</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>335575</v>
+        <v>335940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2883882684655965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2568930307908892</v>
+        <v>0.2580208142582808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3212567090066587</v>
+        <v>0.3216054493519049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>461</v>
@@ -8436,19 +8436,19 @@
         <v>299536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272610</v>
+        <v>274168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323238</v>
+        <v>326659</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2801629056099497</v>
+        <v>0.2801629056099498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2549783912855497</v>
+        <v>0.2564364232566893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3023323269670469</v>
+        <v>0.3055321516990192</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>753</v>
@@ -8457,19 +8457,19 @@
         <v>600778</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561250</v>
+        <v>562687</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643580</v>
+        <v>641958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2842277683428779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2655272831051912</v>
+        <v>0.2662071401303292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3044777813509009</v>
+        <v>0.3037102748100206</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>90070</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71665</v>
+        <v>72654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>111168</v>
+        <v>110865</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08622721320876704</v>
+        <v>0.08622721320876707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06860720091092296</v>
+        <v>0.0695542036127636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1064244031630889</v>
+        <v>0.1061349465388947</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>179</v>
@@ -8507,19 +8507,19 @@
         <v>118563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102107</v>
+        <v>101512</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136793</v>
+        <v>135287</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1108951133035198</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09550271795532227</v>
+        <v>0.09494676249897856</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1279458939749548</v>
+        <v>0.1265369253016093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>273</v>
@@ -8528,19 +8528,19 @@
         <v>208634</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>182688</v>
+        <v>185867</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>239132</v>
+        <v>236703</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09870457173660044</v>
+        <v>0.0987045717366004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08642953313547841</v>
+        <v>0.08793384427668939</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1131334374697287</v>
+        <v>0.11198391794866</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>41572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29149</v>
+        <v>28779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58217</v>
+        <v>56967</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03979848356796507</v>
+        <v>0.03979848356796508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0279054076657528</v>
+        <v>0.02755077270404833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0557326871043847</v>
+        <v>0.05453653184920623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -8578,19 +8578,19 @@
         <v>64451</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52026</v>
+        <v>52952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79820</v>
+        <v>80805</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06028280278431323</v>
+        <v>0.06028280278431324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04866147393010271</v>
+        <v>0.04952736980208058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07465732536314067</v>
+        <v>0.07557862612128669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -8599,19 +8599,19 @@
         <v>106024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88512</v>
+        <v>87922</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128388</v>
+        <v>131499</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05015973013046966</v>
+        <v>0.05015973013046963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04187495052874966</v>
+        <v>0.04159595814178611</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06074042345568619</v>
+        <v>0.0622123572913805</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>23260</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14998</v>
+        <v>14995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36724</v>
+        <v>35777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02226733752591695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01435797928114747</v>
+        <v>0.01435549223750395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03515686624459174</v>
+        <v>0.03425015002854264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -8649,19 +8649,19 @@
         <v>23590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15578</v>
+        <v>16095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36003</v>
+        <v>36040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02206474609821435</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01457056509925794</v>
+        <v>0.0150540763661312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03367418989797723</v>
+        <v>0.03370883960041789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -8670,19 +8670,19 @@
         <v>46850</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34418</v>
+        <v>35575</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61774</v>
+        <v>64166</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02216486403330505</v>
+        <v>0.02216486403330504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01628328875194494</v>
+        <v>0.01683034283631839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02922515006155416</v>
+        <v>0.03035707348487264</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>431547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>400473</v>
+        <v>398540</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>466830</v>
+        <v>466265</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5404347738008352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5015198921946038</v>
+        <v>0.4990995674439705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5846202680621071</v>
+        <v>0.5839134616189608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>499</v>
@@ -8795,19 +8795,19 @@
         <v>399056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>368792</v>
+        <v>373041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424420</v>
+        <v>429995</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4925745095358001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4552180400030813</v>
+        <v>0.4604623352461131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5238824579340526</v>
+        <v>0.5307636935409721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>853</v>
@@ -8816,19 +8816,19 @@
         <v>830603</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>789494</v>
+        <v>785855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>873826</v>
+        <v>872387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.516331700244375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.490777074203779</v>
+        <v>0.4885147111078567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5432001876298371</v>
+        <v>0.5423060018628724</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>228310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200218</v>
+        <v>197356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261998</v>
+        <v>259106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2859177586962134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2507373251331062</v>
+        <v>0.2471531229104796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3281058114090742</v>
+        <v>0.3244834816812929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -8866,19 +8866,19 @@
         <v>262811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>240245</v>
+        <v>239417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>288090</v>
+        <v>286342</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3244003103099918</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2965455067259825</v>
+        <v>0.2955242742918787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3556029747747414</v>
+        <v>0.3534456509499548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>556</v>
@@ -8887,19 +8887,19 @@
         <v>491121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>450636</v>
+        <v>452305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>527366</v>
+        <v>529308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3052980898839124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2801307908831077</v>
+        <v>0.2811687142930702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3278289904975673</v>
+        <v>0.3290362179403236</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>100354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80274</v>
+        <v>78562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125908</v>
+        <v>123574</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1256758875430953</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1005286199739482</v>
+        <v>0.09838459612975008</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1576774842872487</v>
+        <v>0.1547547232799629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -8937,19 +8937,19 @@
         <v>85861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68899</v>
+        <v>68409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104495</v>
+        <v>105022</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1059820935947602</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08504571179567878</v>
+        <v>0.0844408751967515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1289835647712261</v>
+        <v>0.1296335587431528</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>182</v>
@@ -8958,19 +8958,19 @@
         <v>186215</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>159089</v>
+        <v>159233</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>216319</v>
+        <v>215126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1157578277197342</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09889547637382956</v>
+        <v>0.0989847953061451</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1344713016560438</v>
+        <v>0.1337300715440487</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>29624</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19937</v>
+        <v>20862</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42351</v>
+        <v>42938</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0370993295379516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02496797333970508</v>
+        <v>0.0261261966636619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05303699299826502</v>
+        <v>0.05377167120344607</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -9008,19 +9008,19 @@
         <v>44993</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35089</v>
+        <v>34918</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57460</v>
+        <v>57933</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05553667232388844</v>
+        <v>0.05553667232388845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04331159648414601</v>
+        <v>0.04310059128839262</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07092569413837654</v>
+        <v>0.07150914190040521</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -9029,19 +9029,19 @@
         <v>74617</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61018</v>
+        <v>60008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91699</v>
+        <v>92108</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04638462363691807</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03793100652351275</v>
+        <v>0.03730315325855674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0570032843786067</v>
+        <v>0.05725737737614817</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>8682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4080</v>
+        <v>4307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15660</v>
+        <v>16610</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0108722504219045</v>
+        <v>0.01087225042190451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005108920982828328</v>
+        <v>0.0053941200927251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01961082146664447</v>
+        <v>0.02080092282467662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -9079,19 +9079,19 @@
         <v>17423</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10927</v>
+        <v>10947</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27242</v>
+        <v>26992</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02150641423555938</v>
+        <v>0.02150641423555939</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01348794325059258</v>
+        <v>0.01351250985244665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03362590137062112</v>
+        <v>0.03331807701073381</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -9100,19 +9100,19 @@
         <v>26105</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18163</v>
+        <v>17873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37416</v>
+        <v>37789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01622775851506031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01129105320386112</v>
+        <v>0.01111059180387327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02325896248551457</v>
+        <v>0.02349114113586285</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>595278</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>561407</v>
+        <v>564381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>626189</v>
+        <v>626392</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6028739730120074</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5685700506338914</v>
+        <v>0.5715827981260664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.634179044755959</v>
+        <v>0.6343850448734208</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>785</v>
@@ -9225,19 +9225,19 @@
         <v>596888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>567667</v>
+        <v>566405</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>627032</v>
+        <v>628049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5363122222438826</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5100565777507662</v>
+        <v>0.5089223284673199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5633970205892522</v>
+        <v>0.5643102319503446</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1357</v>
@@ -9246,19 +9246,19 @@
         <v>1192167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1146401</v>
+        <v>1154134</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1234645</v>
+        <v>1236098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.567603735421958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5458140612579192</v>
+        <v>0.5494961259511129</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5878282252738645</v>
+        <v>0.5885201652905461</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>202206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178425</v>
+        <v>178681</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228085</v>
+        <v>227842</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2047860042592014</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1807017663521793</v>
+        <v>0.1809605150823756</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.230995455350085</v>
+        <v>0.230749401197905</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>390</v>
@@ -9296,19 +9296,19 @@
         <v>263970</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>239281</v>
+        <v>240220</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>288296</v>
+        <v>294418</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2371807517790591</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2149969385473658</v>
+        <v>0.2158410774061846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2590376597931154</v>
+        <v>0.2645383296814807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>617</v>
@@ -9317,19 +9317,19 @@
         <v>466176</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430713</v>
+        <v>431914</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>499938</v>
+        <v>501119</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.221951575003807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2050670641057079</v>
+        <v>0.2056392053815298</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.238025829257115</v>
+        <v>0.2385881251200931</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>112785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92969</v>
+        <v>92161</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>133413</v>
+        <v>133926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1142240715750732</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09415567523961946</v>
+        <v>0.09333721461549041</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1351150123226207</v>
+        <v>0.1356350012795307</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -9367,19 +9367,19 @@
         <v>123467</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108954</v>
+        <v>105824</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142247</v>
+        <v>142627</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1109371096256923</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09789683250017438</v>
+        <v>0.09508404523602866</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.127810740073102</v>
+        <v>0.1281522036271606</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>306</v>
@@ -9388,19 +9388,19 @@
         <v>236252</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>211088</v>
+        <v>210068</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>265653</v>
+        <v>262983</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1124823516298155</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1005012286850236</v>
+        <v>0.1000156393370354</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1264802284115078</v>
+        <v>0.1252090106223348</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>48083</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36925</v>
+        <v>37633</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62267</v>
+        <v>62091</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04869686745059269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03739617068768425</v>
+        <v>0.03811324624978123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0630613819876218</v>
+        <v>0.06288346107143508</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -9438,19 +9438,19 @@
         <v>80535</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67222</v>
+        <v>66028</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97156</v>
+        <v>97217</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07236181670014094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06040003961298073</v>
+        <v>0.0593270956903107</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08729637868521244</v>
+        <v>0.08735125565777271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -9459,19 +9459,19 @@
         <v>128618</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>110258</v>
+        <v>110204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149728</v>
+        <v>149105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06123662749229732</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05249499703500782</v>
+        <v>0.05246946420692489</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07128707959863498</v>
+        <v>0.07099075109491368</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>29048</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19292</v>
+        <v>20432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40566</v>
+        <v>41628</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02941908370312528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01953845109007162</v>
+        <v>0.02069279612699023</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04108350341857389</v>
+        <v>0.04215867211293901</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>73</v>
@@ -9509,19 +9509,19 @@
         <v>48088</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37192</v>
+        <v>37419</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59072</v>
+        <v>60398</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04320809965122484</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03341769067652008</v>
+        <v>0.03362151315527652</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05307722805756845</v>
+        <v>0.05426864282060901</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>106</v>
@@ -9530,19 +9530,19 @@
         <v>77137</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64131</v>
+        <v>62859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92304</v>
+        <v>93904</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03672571045212231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03053326229115768</v>
+        <v>0.02992774063016764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04394704411187776</v>
+        <v>0.04470860616033186</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2009301</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1949086</v>
+        <v>1945947</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2074280</v>
+        <v>2074752</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5707614891319142</v>
+        <v>0.5707614891319143</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5536569123335694</v>
+        <v>0.5527652204988808</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5892194466835792</v>
+        <v>0.5893536193363942</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2631</v>
@@ -9655,19 +9655,19 @@
         <v>1944827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1888054</v>
+        <v>1891030</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1997760</v>
+        <v>1997922</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5223726211221884</v>
+        <v>0.5223726211221885</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5071235581533827</v>
+        <v>0.5079228761709104</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5365901263732907</v>
+        <v>0.5366336884370029</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4457</v>
@@ -9676,19 +9676,19 @@
         <v>3954127</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3872608</v>
+        <v>3877801</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4037951</v>
+        <v>4048777</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5458900706480211</v>
+        <v>0.545890070648021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5346358916428069</v>
+        <v>0.5353527769109956</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5574623337652516</v>
+        <v>0.5589570507468006</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>907960</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>854982</v>
+        <v>849758</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>964849</v>
+        <v>962356</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2579149363346618</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2428659309125303</v>
+        <v>0.2413820000400271</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2740747852234804</v>
+        <v>0.2733664947394458</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1611</v>
@@ -9726,19 +9726,19 @@
         <v>1040705</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>993205</v>
+        <v>995729</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1088206</v>
+        <v>1088572</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2795292304575555</v>
+        <v>0.2795292304575556</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2667706943097764</v>
+        <v>0.2674488269357187</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2922876084335373</v>
+        <v>0.292386033115325</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2538</v>
@@ -9747,19 +9747,19 @@
         <v>1948665</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1872765</v>
+        <v>1871755</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2021310</v>
+        <v>2013528</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.269024478187478</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.258545990826101</v>
+        <v>0.2584065065620831</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2790534920178477</v>
+        <v>0.2779791224506958</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>382107</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>342025</v>
+        <v>344749</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>421622</v>
+        <v>425355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1085411892105025</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09715549428892491</v>
+        <v>0.09792941485738228</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1197658026004526</v>
+        <v>0.1208263672085556</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>614</v>
@@ -9797,19 +9797,19 @@
         <v>409246</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>375218</v>
+        <v>378471</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>441067</v>
+        <v>440505</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1099218435141734</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1007819927763794</v>
+        <v>0.101655649106759</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1184688470334066</v>
+        <v>0.1183179614338887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>992</v>
@@ -9818,19 +9818,19 @@
         <v>791353</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>744785</v>
+        <v>739658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>843430</v>
+        <v>844877</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1092508324069767</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1028218388515277</v>
+        <v>0.1021141155461947</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1164403477147564</v>
+        <v>0.1166400917713383</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>145567</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>121896</v>
+        <v>124512</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>169917</v>
+        <v>171523</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04134976157840931</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03462578635938469</v>
+        <v>0.03536884310568286</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04826651203218</v>
+        <v>0.04872285723094755</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>343</v>
@@ -9868,19 +9868,19 @@
         <v>227985</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>204671</v>
+        <v>204562</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>255286</v>
+        <v>253338</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06123577807766617</v>
+        <v>0.06123577807766618</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05497382717680679</v>
+        <v>0.0549446019035139</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06856870588064849</v>
+        <v>0.0680454355241749</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>497</v>
@@ -9889,19 +9889,19 @@
         <v>373552</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>340842</v>
+        <v>340522</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>408232</v>
+        <v>409352</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.05157098515055846</v>
+        <v>0.05157098515055845</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04705520060614953</v>
+        <v>0.04701107089359539</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05635884225711497</v>
+        <v>0.05651336743399185</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>75451</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57979</v>
+        <v>61637</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92457</v>
+        <v>93060</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02143262374451211</v>
+        <v>0.02143262374451212</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01646950784628652</v>
+        <v>0.01750855373864038</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0262631822987347</v>
+        <v>0.02643450779170229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>147</v>
@@ -9939,19 +9939,19 @@
         <v>100301</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>85134</v>
+        <v>84522</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>119364</v>
+        <v>118328</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02694052682841634</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02286670069279724</v>
+        <v>0.02270239271969265</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03206077929467863</v>
+        <v>0.03178240933275712</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>229</v>
@@ -9960,19 +9960,19 @@
         <v>175752</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>154731</v>
+        <v>154590</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>202425</v>
+        <v>201316</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0242636336069659</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02136152359631171</v>
+        <v>0.02134210333062799</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02794599347176083</v>
+        <v>0.02779276637194032</v>
       </c>
     </row>
     <row r="33">
